--- a/BalanceSheet/RSG_bal.xlsx
+++ b/BalanceSheet/RSG_bal.xlsx
@@ -1938,19 +1938,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>13700000.0</v>
+        <v>779000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>400000.0</v>
+        <v>646000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>2700000.0</v>
+        <v>657000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-63500000.0</v>
+        <v>661000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>15700000.0</v>
+        <v>778000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>697200000.0</v>
@@ -2940,19 +2940,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>15100000.0</v>
+        <v>1239000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>34300000.0</v>
+        <v>1222000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>-6200000.0</v>
+        <v>1187000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>17600000.0</v>
+        <v>1192000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>93200000.0</v>
+        <v>1181000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>1074600000.0</v>
